--- a/cloud-architecture/oracle-apps-erp/ebs-migration/ebs-starterpack/files/erp-discovery-questionnaire..xlsx
+++ b/cloud-architecture/oracle-apps-erp/ebs-migration/ebs-starterpack/files/erp-discovery-questionnaire..xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madhusri/Documents/OCI/Work/Technology/Pattern/WorkingCopy/EBS-StarterPack-V1.1/Lean-Staterpack/Madhu/ConsolidatedDiscoveryQuestionnaire/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madhusri/Documents/OCI/Work/Technology/Pattern/WorkingCopy/EBS-StarterPack-V1.1/OracleGitHub/technology-engineering/cloud-architecture/oracle-apps-erp/ebs-migration/ebs-starterpack/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9886ED-C801-2A44-9142-BB06B265092E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F72AABD-B228-134D-9804-2AFA689295C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2500" windowWidth="25600" windowHeight="15500" tabRatio="912" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="2500" windowWidth="25600" windowHeight="15500" tabRatio="912" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOOKUPS" sheetId="9" state="hidden" r:id="rId1"/>
@@ -508,19 +508,8 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Please add or modify the environment name according to the Customer</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Please add or modify the environment name according to the Customer
 </t>
         </r>
       </text>
@@ -3187,13 +3176,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Oracle Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Oracle Sans"/>
@@ -3244,8 +3226,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3307,18 +3295,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -3454,21 +3436,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -3746,7 +3713,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3783,22 +3750,22 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3813,16 +3780,13 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3831,34 +3795,34 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3867,28 +3831,28 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3897,13 +3861,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3915,56 +3879,56 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3976,29 +3940,38 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="20" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="20" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4006,37 +3979,28 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -19211,7 +19175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31F1E30-58D9-1240-AF09-6E12DB10DE4C}">
   <dimension ref="A1:IV110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -19224,1022 +19188,1022 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1"/>
     <row r="2" spans="1:6" ht="24" thickBot="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="84" t="s">
         <v>793</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="77"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="18" thickBot="1">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="81" t="s">
         <v>792</v>
       </c>
-      <c r="B4" s="83">
+      <c r="B4" s="82">
         <v>1</v>
       </c>
-      <c r="C4" s="83">
+      <c r="C4" s="82">
         <v>2</v>
       </c>
-      <c r="D4" s="83">
+      <c r="D4" s="82">
         <v>3</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="83">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="81"/>
-      <c r="B5" s="80" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="79" t="s">
         <v>644</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="79" t="s">
         <v>645</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="79" t="s">
         <v>646</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="79" t="s">
         <v>647</v>
       </c>
-      <c r="F5" s="77"/>
+      <c r="F5" s="76"/>
     </row>
     <row r="6" spans="1:6" ht="18">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="74" t="s">
         <v>685</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="77"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="76"/>
     </row>
     <row r="7" spans="1:6" ht="18">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="74" t="s">
         <v>791</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="77"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="76"/>
     </row>
     <row r="8" spans="1:6" ht="18">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="74" t="s">
         <v>662</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="77"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6" ht="18">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="74" t="s">
         <v>661</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="77"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="76"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="74" t="s">
         <v>684</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="77"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="76"/>
     </row>
     <row r="11" spans="1:6" ht="18">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="70" t="s">
         <v>683</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="77"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="76"/>
     </row>
     <row r="12" spans="1:6" ht="18">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="70" t="s">
         <v>682</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="77"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="76"/>
     </row>
     <row r="13" spans="1:6" ht="18">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="77"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="76"/>
     </row>
     <row r="14" spans="1:6" ht="18">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="70" t="s">
         <v>680</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="77"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="76"/>
     </row>
     <row r="15" spans="1:6" ht="18">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="70" t="s">
         <v>679</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="77"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="76"/>
     </row>
     <row r="16" spans="1:6" ht="18">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="74" t="s">
         <v>678</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="77"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="76"/>
     </row>
     <row r="17" spans="1:6" ht="18">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="70" t="s">
         <v>677</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="77"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="76"/>
     </row>
     <row r="18" spans="1:6" ht="18">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="70" t="s">
         <v>648</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="77"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="76"/>
     </row>
     <row r="19" spans="1:6" ht="18">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="70" t="s">
         <v>672</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="77"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="76"/>
     </row>
     <row r="20" spans="1:6" ht="18">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="74" t="s">
         <v>676</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="77"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="76"/>
     </row>
     <row r="21" spans="1:6" ht="18">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="70" t="s">
         <v>790</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="77"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="76"/>
     </row>
     <row r="22" spans="1:6" ht="18">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="70" t="s">
         <v>789</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="77"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="76"/>
     </row>
     <row r="23" spans="1:6" ht="18">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="74" t="s">
         <v>675</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="77"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="76"/>
     </row>
     <row r="24" spans="1:6" ht="18">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="70" t="s">
         <v>674</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="77"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="76"/>
     </row>
     <row r="25" spans="1:6" ht="18">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="70" t="s">
         <v>673</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="77"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="76"/>
     </row>
     <row r="26" spans="1:6" ht="18">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="70" t="s">
         <v>788</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="77"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="76"/>
     </row>
     <row r="27" spans="1:6" ht="18">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="70" t="s">
         <v>663</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="77"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="76"/>
     </row>
     <row r="28" spans="1:6" ht="18">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="70" t="s">
         <v>658</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="77"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="76"/>
     </row>
     <row r="29" spans="1:6" ht="18">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="70" t="s">
         <v>657</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="77"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="76"/>
     </row>
     <row r="30" spans="1:6" ht="18">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="70" t="s">
         <v>787</v>
       </c>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="77"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="76"/>
     </row>
     <row r="31" spans="1:6" ht="18">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="74" t="s">
         <v>656</v>
       </c>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="77"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="76"/>
     </row>
     <row r="32" spans="1:6" ht="18">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="74" t="s">
         <v>655</v>
       </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="77"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="76"/>
     </row>
     <row r="33" spans="1:6" ht="18">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="70" t="s">
         <v>660</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="77"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="76"/>
     </row>
     <row r="34" spans="1:6" ht="18">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="70" t="s">
         <v>664</v>
       </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="77"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="76"/>
     </row>
     <row r="35" spans="1:6" ht="18">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="70" t="s">
         <v>786</v>
       </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="77"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="76"/>
     </row>
     <row r="36" spans="1:6" ht="18">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="70" t="s">
         <v>785</v>
       </c>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="77"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="76"/>
     </row>
     <row r="37" spans="1:6" ht="18">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="70" t="s">
         <v>659</v>
       </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="77"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="76"/>
     </row>
     <row r="38" spans="1:6" ht="34">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="70" t="s">
         <v>784</v>
       </c>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="77"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="76"/>
     </row>
     <row r="39" spans="1:6" ht="19" thickBot="1">
-      <c r="A39" s="43"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="78"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="77"/>
     </row>
     <row r="40" spans="1:6" ht="18" thickBot="1">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="81" t="s">
         <v>783</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="84"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="83"/>
     </row>
     <row r="41" spans="1:6" ht="18">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="74" t="s">
         <v>782</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
     </row>
     <row r="42" spans="1:6" ht="18">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="74" t="s">
         <v>781</v>
       </c>
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
     </row>
     <row r="43" spans="1:6" ht="18">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="74" t="s">
         <v>670</v>
       </c>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
     </row>
     <row r="44" spans="1:6" ht="18">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="74" t="s">
         <v>780</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
     </row>
     <row r="45" spans="1:6" ht="18">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="74" t="s">
         <v>662</v>
       </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="77"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="76"/>
     </row>
     <row r="46" spans="1:6" ht="18">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="74" t="s">
         <v>671</v>
       </c>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
     </row>
     <row r="47" spans="1:6" ht="18">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="74" t="s">
         <v>669</v>
       </c>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
     </row>
     <row r="48" spans="1:6" ht="18">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="74" t="s">
         <v>779</v>
       </c>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
     </row>
     <row r="49" spans="1:256" ht="18">
-      <c r="A49" s="71" t="s">
+      <c r="A49" s="70" t="s">
         <v>778</v>
       </c>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
     </row>
     <row r="50" spans="1:256" ht="18">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="70" t="s">
         <v>777</v>
       </c>
-      <c r="B50" s="73"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
     </row>
     <row r="51" spans="1:256" ht="18">
-      <c r="A51" s="75" t="s">
+      <c r="A51" s="74" t="s">
         <v>667</v>
       </c>
-      <c r="B51" s="73"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
     </row>
     <row r="52" spans="1:256" ht="18">
-      <c r="A52" s="75" t="s">
+      <c r="A52" s="74" t="s">
         <v>776</v>
       </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
     </row>
     <row r="53" spans="1:256" ht="18">
-      <c r="A53" s="71" t="s">
+      <c r="A53" s="70" t="s">
         <v>775</v>
       </c>
-      <c r="B53" s="73"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
     </row>
     <row r="54" spans="1:256" ht="18">
-      <c r="A54" s="71" t="s">
+      <c r="A54" s="70" t="s">
         <v>666</v>
       </c>
-      <c r="B54" s="73"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
     </row>
     <row r="55" spans="1:256" ht="18">
-      <c r="A55" s="71" t="s">
+      <c r="A55" s="70" t="s">
         <v>774</v>
       </c>
-      <c r="B55" s="73"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
     </row>
     <row r="56" spans="1:256" ht="18">
-      <c r="A56" s="75" t="s">
+      <c r="A56" s="74" t="s">
         <v>773</v>
       </c>
-      <c r="B56" s="73"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
     </row>
     <row r="57" spans="1:256" ht="18">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="70" t="s">
         <v>772</v>
       </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
     </row>
     <row r="58" spans="1:256" ht="18">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="70" t="s">
         <v>771</v>
       </c>
-      <c r="B58" s="73"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
     </row>
     <row r="59" spans="1:256" ht="18">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="70" t="s">
         <v>770</v>
       </c>
-      <c r="B59" s="73"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
     </row>
     <row r="60" spans="1:256" ht="34">
-      <c r="A60" s="75" t="s">
+      <c r="A60" s="74" t="s">
         <v>769</v>
       </c>
-      <c r="B60" s="73"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
     </row>
     <row r="61" spans="1:256" ht="19" customHeight="1">
-      <c r="A61" s="75" t="s">
+      <c r="A61" s="74" t="s">
         <v>768</v>
       </c>
-      <c r="B61" s="73"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="76"/>
-      <c r="N61" s="76"/>
-      <c r="O61" s="76"/>
-      <c r="P61" s="76"/>
-      <c r="Q61" s="76"/>
-      <c r="R61" s="76"/>
-      <c r="S61" s="76"/>
-      <c r="T61" s="76"/>
-      <c r="U61" s="76"/>
-      <c r="V61" s="76"/>
-      <c r="W61" s="76"/>
-      <c r="X61" s="76"/>
-      <c r="Y61" s="76"/>
-      <c r="Z61" s="76"/>
-      <c r="AA61" s="76"/>
-      <c r="AB61" s="76"/>
-      <c r="AC61" s="76"/>
-      <c r="AD61" s="76"/>
-      <c r="AE61" s="76"/>
-      <c r="AF61" s="76"/>
-      <c r="AG61" s="76"/>
-      <c r="AH61" s="76"/>
-      <c r="AI61" s="76"/>
-      <c r="AJ61" s="76"/>
-      <c r="AK61" s="76"/>
-      <c r="AL61" s="76"/>
-      <c r="AM61" s="76"/>
-      <c r="AN61" s="76"/>
-      <c r="AO61" s="76"/>
-      <c r="AP61" s="76"/>
-      <c r="AQ61" s="76"/>
-      <c r="AR61" s="76"/>
-      <c r="AS61" s="76"/>
-      <c r="AT61" s="76"/>
-      <c r="AU61" s="76"/>
-      <c r="AV61" s="76"/>
-      <c r="AW61" s="76"/>
-      <c r="AX61" s="76"/>
-      <c r="AY61" s="76"/>
-      <c r="AZ61" s="76"/>
-      <c r="BA61" s="76"/>
-      <c r="BB61" s="76"/>
-      <c r="BC61" s="76"/>
-      <c r="BD61" s="76"/>
-      <c r="BE61" s="76"/>
-      <c r="BF61" s="76"/>
-      <c r="BG61" s="76"/>
-      <c r="BH61" s="76"/>
-      <c r="BI61" s="76"/>
-      <c r="BJ61" s="76"/>
-      <c r="BK61" s="76"/>
-      <c r="BL61" s="76"/>
-      <c r="BM61" s="76"/>
-      <c r="BN61" s="76"/>
-      <c r="BO61" s="76"/>
-      <c r="BP61" s="76"/>
-      <c r="BQ61" s="76"/>
-      <c r="BR61" s="76"/>
-      <c r="BS61" s="76"/>
-      <c r="BT61" s="76"/>
-      <c r="BU61" s="76"/>
-      <c r="BV61" s="76"/>
-      <c r="BW61" s="76"/>
-      <c r="BX61" s="76"/>
-      <c r="BY61" s="76"/>
-      <c r="BZ61" s="76"/>
-      <c r="CA61" s="76"/>
-      <c r="CB61" s="76"/>
-      <c r="CC61" s="76"/>
-      <c r="CD61" s="76"/>
-      <c r="CE61" s="76"/>
-      <c r="CF61" s="76"/>
-      <c r="CG61" s="76"/>
-      <c r="CH61" s="76"/>
-      <c r="CI61" s="76"/>
-      <c r="CJ61" s="76"/>
-      <c r="CK61" s="76"/>
-      <c r="CL61" s="76"/>
-      <c r="CM61" s="76"/>
-      <c r="CN61" s="76"/>
-      <c r="CO61" s="76"/>
-      <c r="CP61" s="76"/>
-      <c r="CQ61" s="76"/>
-      <c r="CR61" s="76"/>
-      <c r="CS61" s="76"/>
-      <c r="CT61" s="76"/>
-      <c r="CU61" s="76"/>
-      <c r="CV61" s="76"/>
-      <c r="CW61" s="76"/>
-      <c r="CX61" s="76"/>
-      <c r="CY61" s="76"/>
-      <c r="CZ61" s="76"/>
-      <c r="DA61" s="76"/>
-      <c r="DB61" s="76"/>
-      <c r="DC61" s="76"/>
-      <c r="DD61" s="76"/>
-      <c r="DE61" s="76"/>
-      <c r="DF61" s="76"/>
-      <c r="DG61" s="76"/>
-      <c r="DH61" s="76"/>
-      <c r="DI61" s="76"/>
-      <c r="DJ61" s="76"/>
-      <c r="DK61" s="76"/>
-      <c r="DL61" s="76"/>
-      <c r="DM61" s="76"/>
-      <c r="DN61" s="76"/>
-      <c r="DO61" s="76"/>
-      <c r="DP61" s="76"/>
-      <c r="DQ61" s="76"/>
-      <c r="DR61" s="76"/>
-      <c r="DS61" s="76"/>
-      <c r="DT61" s="76"/>
-      <c r="DU61" s="76"/>
-      <c r="DV61" s="76"/>
-      <c r="DW61" s="76"/>
-      <c r="DX61" s="76"/>
-      <c r="DY61" s="76"/>
-      <c r="DZ61" s="76"/>
-      <c r="EA61" s="76"/>
-      <c r="EB61" s="76"/>
-      <c r="EC61" s="76"/>
-      <c r="ED61" s="76"/>
-      <c r="EE61" s="76"/>
-      <c r="EF61" s="76"/>
-      <c r="EG61" s="76"/>
-      <c r="EH61" s="76"/>
-      <c r="EI61" s="76"/>
-      <c r="EJ61" s="76"/>
-      <c r="EK61" s="76"/>
-      <c r="EL61" s="76"/>
-      <c r="EM61" s="76"/>
-      <c r="EN61" s="76"/>
-      <c r="EO61" s="76"/>
-      <c r="EP61" s="76"/>
-      <c r="EQ61" s="76"/>
-      <c r="ER61" s="76"/>
-      <c r="ES61" s="76"/>
-      <c r="ET61" s="76"/>
-      <c r="EU61" s="76"/>
-      <c r="EV61" s="76"/>
-      <c r="EW61" s="76"/>
-      <c r="EX61" s="76"/>
-      <c r="EY61" s="76"/>
-      <c r="EZ61" s="76"/>
-      <c r="FA61" s="76"/>
-      <c r="FB61" s="76"/>
-      <c r="FC61" s="76"/>
-      <c r="FD61" s="76"/>
-      <c r="FE61" s="76"/>
-      <c r="FF61" s="76"/>
-      <c r="FG61" s="76"/>
-      <c r="FH61" s="76"/>
-      <c r="FI61" s="76"/>
-      <c r="FJ61" s="76"/>
-      <c r="FK61" s="76"/>
-      <c r="FL61" s="76"/>
-      <c r="FM61" s="76"/>
-      <c r="FN61" s="76"/>
-      <c r="FO61" s="76"/>
-      <c r="FP61" s="76"/>
-      <c r="FQ61" s="76"/>
-      <c r="FR61" s="76"/>
-      <c r="FS61" s="76"/>
-      <c r="FT61" s="76"/>
-      <c r="FU61" s="76"/>
-      <c r="FV61" s="76"/>
-      <c r="FW61" s="76"/>
-      <c r="FX61" s="76"/>
-      <c r="FY61" s="76"/>
-      <c r="FZ61" s="76"/>
-      <c r="GA61" s="76"/>
-      <c r="GB61" s="76"/>
-      <c r="GC61" s="76"/>
-      <c r="GD61" s="76"/>
-      <c r="GE61" s="76"/>
-      <c r="GF61" s="76"/>
-      <c r="GG61" s="76"/>
-      <c r="GH61" s="76"/>
-      <c r="GI61" s="76"/>
-      <c r="GJ61" s="76"/>
-      <c r="GK61" s="76"/>
-      <c r="GL61" s="76"/>
-      <c r="GM61" s="76"/>
-      <c r="GN61" s="76"/>
-      <c r="GO61" s="76"/>
-      <c r="GP61" s="76"/>
-      <c r="GQ61" s="76"/>
-      <c r="GR61" s="76"/>
-      <c r="GS61" s="76"/>
-      <c r="GT61" s="76"/>
-      <c r="GU61" s="76"/>
-      <c r="GV61" s="76"/>
-      <c r="GW61" s="76"/>
-      <c r="GX61" s="76"/>
-      <c r="GY61" s="76"/>
-      <c r="GZ61" s="76"/>
-      <c r="HA61" s="76"/>
-      <c r="HB61" s="76"/>
-      <c r="HC61" s="76"/>
-      <c r="HD61" s="76"/>
-      <c r="HE61" s="76"/>
-      <c r="HF61" s="76"/>
-      <c r="HG61" s="76"/>
-      <c r="HH61" s="76"/>
-      <c r="HI61" s="76"/>
-      <c r="HJ61" s="76"/>
-      <c r="HK61" s="76"/>
-      <c r="HL61" s="76"/>
-      <c r="HM61" s="76"/>
-      <c r="HN61" s="76"/>
-      <c r="HO61" s="76"/>
-      <c r="HP61" s="76"/>
-      <c r="HQ61" s="76"/>
-      <c r="HR61" s="76"/>
-      <c r="HS61" s="76"/>
-      <c r="HT61" s="76"/>
-      <c r="HU61" s="76"/>
-      <c r="HV61" s="76"/>
-      <c r="HW61" s="76"/>
-      <c r="HX61" s="76"/>
-      <c r="HY61" s="76"/>
-      <c r="HZ61" s="76"/>
-      <c r="IA61" s="76"/>
-      <c r="IB61" s="76"/>
-      <c r="IC61" s="76"/>
-      <c r="ID61" s="76"/>
-      <c r="IE61" s="76"/>
-      <c r="IF61" s="76"/>
-      <c r="IG61" s="76"/>
-      <c r="IH61" s="76"/>
-      <c r="II61" s="76"/>
-      <c r="IJ61" s="76"/>
-      <c r="IK61" s="76"/>
-      <c r="IL61" s="76"/>
-      <c r="IM61" s="76"/>
-      <c r="IN61" s="76"/>
-      <c r="IO61" s="76"/>
-      <c r="IP61" s="76"/>
-      <c r="IQ61" s="76"/>
-      <c r="IR61" s="76"/>
-      <c r="IS61" s="76"/>
-      <c r="IT61" s="76"/>
-      <c r="IU61" s="76"/>
-      <c r="IV61" s="76"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="75"/>
+      <c r="N61" s="75"/>
+      <c r="O61" s="75"/>
+      <c r="P61" s="75"/>
+      <c r="Q61" s="75"/>
+      <c r="R61" s="75"/>
+      <c r="S61" s="75"/>
+      <c r="T61" s="75"/>
+      <c r="U61" s="75"/>
+      <c r="V61" s="75"/>
+      <c r="W61" s="75"/>
+      <c r="X61" s="75"/>
+      <c r="Y61" s="75"/>
+      <c r="Z61" s="75"/>
+      <c r="AA61" s="75"/>
+      <c r="AB61" s="75"/>
+      <c r="AC61" s="75"/>
+      <c r="AD61" s="75"/>
+      <c r="AE61" s="75"/>
+      <c r="AF61" s="75"/>
+      <c r="AG61" s="75"/>
+      <c r="AH61" s="75"/>
+      <c r="AI61" s="75"/>
+      <c r="AJ61" s="75"/>
+      <c r="AK61" s="75"/>
+      <c r="AL61" s="75"/>
+      <c r="AM61" s="75"/>
+      <c r="AN61" s="75"/>
+      <c r="AO61" s="75"/>
+      <c r="AP61" s="75"/>
+      <c r="AQ61" s="75"/>
+      <c r="AR61" s="75"/>
+      <c r="AS61" s="75"/>
+      <c r="AT61" s="75"/>
+      <c r="AU61" s="75"/>
+      <c r="AV61" s="75"/>
+      <c r="AW61" s="75"/>
+      <c r="AX61" s="75"/>
+      <c r="AY61" s="75"/>
+      <c r="AZ61" s="75"/>
+      <c r="BA61" s="75"/>
+      <c r="BB61" s="75"/>
+      <c r="BC61" s="75"/>
+      <c r="BD61" s="75"/>
+      <c r="BE61" s="75"/>
+      <c r="BF61" s="75"/>
+      <c r="BG61" s="75"/>
+      <c r="BH61" s="75"/>
+      <c r="BI61" s="75"/>
+      <c r="BJ61" s="75"/>
+      <c r="BK61" s="75"/>
+      <c r="BL61" s="75"/>
+      <c r="BM61" s="75"/>
+      <c r="BN61" s="75"/>
+      <c r="BO61" s="75"/>
+      <c r="BP61" s="75"/>
+      <c r="BQ61" s="75"/>
+      <c r="BR61" s="75"/>
+      <c r="BS61" s="75"/>
+      <c r="BT61" s="75"/>
+      <c r="BU61" s="75"/>
+      <c r="BV61" s="75"/>
+      <c r="BW61" s="75"/>
+      <c r="BX61" s="75"/>
+      <c r="BY61" s="75"/>
+      <c r="BZ61" s="75"/>
+      <c r="CA61" s="75"/>
+      <c r="CB61" s="75"/>
+      <c r="CC61" s="75"/>
+      <c r="CD61" s="75"/>
+      <c r="CE61" s="75"/>
+      <c r="CF61" s="75"/>
+      <c r="CG61" s="75"/>
+      <c r="CH61" s="75"/>
+      <c r="CI61" s="75"/>
+      <c r="CJ61" s="75"/>
+      <c r="CK61" s="75"/>
+      <c r="CL61" s="75"/>
+      <c r="CM61" s="75"/>
+      <c r="CN61" s="75"/>
+      <c r="CO61" s="75"/>
+      <c r="CP61" s="75"/>
+      <c r="CQ61" s="75"/>
+      <c r="CR61" s="75"/>
+      <c r="CS61" s="75"/>
+      <c r="CT61" s="75"/>
+      <c r="CU61" s="75"/>
+      <c r="CV61" s="75"/>
+      <c r="CW61" s="75"/>
+      <c r="CX61" s="75"/>
+      <c r="CY61" s="75"/>
+      <c r="CZ61" s="75"/>
+      <c r="DA61" s="75"/>
+      <c r="DB61" s="75"/>
+      <c r="DC61" s="75"/>
+      <c r="DD61" s="75"/>
+      <c r="DE61" s="75"/>
+      <c r="DF61" s="75"/>
+      <c r="DG61" s="75"/>
+      <c r="DH61" s="75"/>
+      <c r="DI61" s="75"/>
+      <c r="DJ61" s="75"/>
+      <c r="DK61" s="75"/>
+      <c r="DL61" s="75"/>
+      <c r="DM61" s="75"/>
+      <c r="DN61" s="75"/>
+      <c r="DO61" s="75"/>
+      <c r="DP61" s="75"/>
+      <c r="DQ61" s="75"/>
+      <c r="DR61" s="75"/>
+      <c r="DS61" s="75"/>
+      <c r="DT61" s="75"/>
+      <c r="DU61" s="75"/>
+      <c r="DV61" s="75"/>
+      <c r="DW61" s="75"/>
+      <c r="DX61" s="75"/>
+      <c r="DY61" s="75"/>
+      <c r="DZ61" s="75"/>
+      <c r="EA61" s="75"/>
+      <c r="EB61" s="75"/>
+      <c r="EC61" s="75"/>
+      <c r="ED61" s="75"/>
+      <c r="EE61" s="75"/>
+      <c r="EF61" s="75"/>
+      <c r="EG61" s="75"/>
+      <c r="EH61" s="75"/>
+      <c r="EI61" s="75"/>
+      <c r="EJ61" s="75"/>
+      <c r="EK61" s="75"/>
+      <c r="EL61" s="75"/>
+      <c r="EM61" s="75"/>
+      <c r="EN61" s="75"/>
+      <c r="EO61" s="75"/>
+      <c r="EP61" s="75"/>
+      <c r="EQ61" s="75"/>
+      <c r="ER61" s="75"/>
+      <c r="ES61" s="75"/>
+      <c r="ET61" s="75"/>
+      <c r="EU61" s="75"/>
+      <c r="EV61" s="75"/>
+      <c r="EW61" s="75"/>
+      <c r="EX61" s="75"/>
+      <c r="EY61" s="75"/>
+      <c r="EZ61" s="75"/>
+      <c r="FA61" s="75"/>
+      <c r="FB61" s="75"/>
+      <c r="FC61" s="75"/>
+      <c r="FD61" s="75"/>
+      <c r="FE61" s="75"/>
+      <c r="FF61" s="75"/>
+      <c r="FG61" s="75"/>
+      <c r="FH61" s="75"/>
+      <c r="FI61" s="75"/>
+      <c r="FJ61" s="75"/>
+      <c r="FK61" s="75"/>
+      <c r="FL61" s="75"/>
+      <c r="FM61" s="75"/>
+      <c r="FN61" s="75"/>
+      <c r="FO61" s="75"/>
+      <c r="FP61" s="75"/>
+      <c r="FQ61" s="75"/>
+      <c r="FR61" s="75"/>
+      <c r="FS61" s="75"/>
+      <c r="FT61" s="75"/>
+      <c r="FU61" s="75"/>
+      <c r="FV61" s="75"/>
+      <c r="FW61" s="75"/>
+      <c r="FX61" s="75"/>
+      <c r="FY61" s="75"/>
+      <c r="FZ61" s="75"/>
+      <c r="GA61" s="75"/>
+      <c r="GB61" s="75"/>
+      <c r="GC61" s="75"/>
+      <c r="GD61" s="75"/>
+      <c r="GE61" s="75"/>
+      <c r="GF61" s="75"/>
+      <c r="GG61" s="75"/>
+      <c r="GH61" s="75"/>
+      <c r="GI61" s="75"/>
+      <c r="GJ61" s="75"/>
+      <c r="GK61" s="75"/>
+      <c r="GL61" s="75"/>
+      <c r="GM61" s="75"/>
+      <c r="GN61" s="75"/>
+      <c r="GO61" s="75"/>
+      <c r="GP61" s="75"/>
+      <c r="GQ61" s="75"/>
+      <c r="GR61" s="75"/>
+      <c r="GS61" s="75"/>
+      <c r="GT61" s="75"/>
+      <c r="GU61" s="75"/>
+      <c r="GV61" s="75"/>
+      <c r="GW61" s="75"/>
+      <c r="GX61" s="75"/>
+      <c r="GY61" s="75"/>
+      <c r="GZ61" s="75"/>
+      <c r="HA61" s="75"/>
+      <c r="HB61" s="75"/>
+      <c r="HC61" s="75"/>
+      <c r="HD61" s="75"/>
+      <c r="HE61" s="75"/>
+      <c r="HF61" s="75"/>
+      <c r="HG61" s="75"/>
+      <c r="HH61" s="75"/>
+      <c r="HI61" s="75"/>
+      <c r="HJ61" s="75"/>
+      <c r="HK61" s="75"/>
+      <c r="HL61" s="75"/>
+      <c r="HM61" s="75"/>
+      <c r="HN61" s="75"/>
+      <c r="HO61" s="75"/>
+      <c r="HP61" s="75"/>
+      <c r="HQ61" s="75"/>
+      <c r="HR61" s="75"/>
+      <c r="HS61" s="75"/>
+      <c r="HT61" s="75"/>
+      <c r="HU61" s="75"/>
+      <c r="HV61" s="75"/>
+      <c r="HW61" s="75"/>
+      <c r="HX61" s="75"/>
+      <c r="HY61" s="75"/>
+      <c r="HZ61" s="75"/>
+      <c r="IA61" s="75"/>
+      <c r="IB61" s="75"/>
+      <c r="IC61" s="75"/>
+      <c r="ID61" s="75"/>
+      <c r="IE61" s="75"/>
+      <c r="IF61" s="75"/>
+      <c r="IG61" s="75"/>
+      <c r="IH61" s="75"/>
+      <c r="II61" s="75"/>
+      <c r="IJ61" s="75"/>
+      <c r="IK61" s="75"/>
+      <c r="IL61" s="75"/>
+      <c r="IM61" s="75"/>
+      <c r="IN61" s="75"/>
+      <c r="IO61" s="75"/>
+      <c r="IP61" s="75"/>
+      <c r="IQ61" s="75"/>
+      <c r="IR61" s="75"/>
+      <c r="IS61" s="75"/>
+      <c r="IT61" s="75"/>
+      <c r="IU61" s="75"/>
+      <c r="IV61" s="75"/>
     </row>
     <row r="62" spans="1:256" ht="18">
-      <c r="A62" s="75" t="s">
+      <c r="A62" s="74" t="s">
         <v>767</v>
       </c>
-      <c r="B62" s="73"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
     </row>
     <row r="63" spans="1:256" ht="18">
-      <c r="A63" s="75" t="s">
+      <c r="A63" s="74" t="s">
         <v>766</v>
       </c>
-      <c r="B63" s="73"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
     </row>
     <row r="64" spans="1:256" ht="18">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="74" t="s">
         <v>765</v>
       </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
     </row>
     <row r="65" spans="1:5" ht="18">
-      <c r="A65" s="75" t="s">
+      <c r="A65" s="74" t="s">
         <v>764</v>
       </c>
-      <c r="B65" s="73"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
     </row>
     <row r="66" spans="1:5" ht="18">
-      <c r="A66" s="71" t="s">
+      <c r="A66" s="70" t="s">
         <v>763</v>
       </c>
-      <c r="B66" s="73"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
     </row>
     <row r="67" spans="1:5" ht="18">
-      <c r="A67" s="71" t="s">
+      <c r="A67" s="70" t="s">
         <v>668</v>
       </c>
-      <c r="B67" s="73"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
     </row>
     <row r="68" spans="1:5" ht="18">
-      <c r="A68" s="71" t="s">
+      <c r="A68" s="70" t="s">
         <v>762</v>
       </c>
-      <c r="B68" s="73"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
     </row>
     <row r="69" spans="1:5" ht="18">
-      <c r="A69" s="71" t="s">
+      <c r="A69" s="70" t="s">
         <v>761</v>
       </c>
-      <c r="B69" s="73"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="73"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
     </row>
     <row r="70" spans="1:5" ht="18">
-      <c r="A70" s="71" t="s">
+      <c r="A70" s="70" t="s">
         <v>665</v>
       </c>
-      <c r="B70" s="73"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="73"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
     </row>
     <row r="71" spans="1:5" ht="18">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="70" t="s">
         <v>760</v>
       </c>
-      <c r="B71" s="73"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
     </row>
     <row r="72" spans="1:5" ht="18">
-      <c r="A72" s="75" t="s">
+      <c r="A72" s="74" t="s">
         <v>759</v>
       </c>
-      <c r="B72" s="73"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
     </row>
     <row r="73" spans="1:5" ht="19" thickBot="1">
-      <c r="A73" s="74"/>
-      <c r="B73" s="73"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="73"/>
+      <c r="A73" s="73"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
     </row>
     <row r="74" spans="1:5" ht="18" thickBot="1">
-      <c r="A74" s="82" t="s">
+      <c r="A74" s="81" t="s">
         <v>643</v>
       </c>
-      <c r="B74" s="83"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="84"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="83"/>
     </row>
     <row r="75" spans="1:5" ht="18">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="70" t="s">
         <v>654</v>
       </c>
-      <c r="B75" s="86"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="86"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
     </row>
     <row r="76" spans="1:5" ht="18">
-      <c r="A76" s="71" t="s">
+      <c r="A76" s="70" t="s">
         <v>653</v>
       </c>
-      <c r="B76" s="85"/>
-      <c r="C76" s="85"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="85"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="87"/>
     </row>
     <row r="77" spans="1:5" ht="18">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="71" t="s">
         <v>758</v>
       </c>
-      <c r="B77" s="85"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="85"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="87"/>
     </row>
     <row r="78" spans="1:5" ht="18">
-      <c r="A78" s="71" t="s">
+      <c r="A78" s="70" t="s">
         <v>652</v>
       </c>
-      <c r="B78" s="85"/>
-      <c r="C78" s="85"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="85"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="87"/>
+      <c r="E78" s="87"/>
     </row>
     <row r="79" spans="1:5" ht="18">
-      <c r="A79" s="71" t="s">
+      <c r="A79" s="70" t="s">
         <v>757</v>
       </c>
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="85"/>
+      <c r="B79" s="87"/>
+      <c r="C79" s="87"/>
+      <c r="D79" s="87"/>
+      <c r="E79" s="87"/>
     </row>
     <row r="80" spans="1:5" ht="34">
-      <c r="A80" s="71" t="s">
+      <c r="A80" s="70" t="s">
         <v>756</v>
       </c>
-      <c r="B80" s="85"/>
-      <c r="C80" s="85"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="85"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="87"/>
+      <c r="E80" s="87"/>
     </row>
     <row r="81" spans="1:5" ht="18" thickBot="1">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="42" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="18" thickBot="1">
-      <c r="A82" s="82"/>
-      <c r="B82" s="83"/>
-      <c r="C82" s="83"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="84"/>
+      <c r="A82" s="81"/>
+      <c r="B82" s="82"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="83"/>
     </row>
     <row r="83" spans="1:5">
       <c r="B83" s="19"/>
@@ -20349,8 +20313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D5389B-B5C7-B84F-971B-9532FAFE7E1A}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
@@ -20363,43 +20327,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="17" customFormat="1" ht="24" thickBot="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="84" t="s">
         <v>729</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="102"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" s="16" customFormat="1" ht="18" thickBot="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
         <v>728</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
     </row>
     <row r="3" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>727</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
     </row>
     <row r="4" spans="1:5" s="16" customFormat="1" ht="19">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>726</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5" s="16" customFormat="1" ht="20" thickBot="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>725</v>
       </c>
       <c r="B5" s="29" t="s">
@@ -20416,22 +20380,22 @@
       </c>
     </row>
     <row r="6" spans="1:5" s="16" customFormat="1" ht="18" thickBot="1">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="81" t="s">
         <v>724</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:5" s="16" customFormat="1" ht="18">
       <c r="A7" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" s="16" customFormat="1" ht="18">
       <c r="A8" s="22" t="s">
@@ -20464,115 +20428,115 @@
       <c r="A11" s="22" t="s">
         <v>722</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5" ht="18">
       <c r="A12" s="22" t="s">
         <v>721</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:5" ht="18">
       <c r="A13" s="22" t="s">
         <v>720</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5" ht="18">
       <c r="A14" s="22" t="s">
         <v>719</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5" ht="18">
       <c r="A15" s="22" t="s">
         <v>718</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" ht="18">
       <c r="A16" s="22" t="s">
         <v>717</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5" ht="18">
       <c r="A17" s="22" t="s">
         <v>716</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:5" ht="18">
       <c r="A18" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:5" ht="18">
       <c r="A19" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="1:5" ht="19" thickBot="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="39"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="1:5" ht="18" thickBot="1">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="81" t="s">
         <v>715</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="83"/>
     </row>
     <row r="22" spans="1:5" ht="18">
       <c r="A22" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" spans="1:5" ht="18">
       <c r="A23" s="22" t="s">
         <v>711</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5" ht="18">
@@ -20606,45 +20570,45 @@
       <c r="A27" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
     </row>
     <row r="28" spans="1:5" ht="19" thickBot="1">
       <c r="A28" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:5" ht="18" thickBot="1">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="81" t="s">
         <v>714</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="83"/>
     </row>
     <row r="30" spans="1:5" ht="18">
       <c r="A30" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="30"/>
     </row>
     <row r="31" spans="1:5" ht="18">
       <c r="A31" s="22" t="s">
         <v>711</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" ht="18">
@@ -20669,28 +20633,28 @@
       <c r="A34" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="40"/>
     </row>
     <row r="35" spans="1:5" ht="18">
       <c r="A35" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="B35" s="87"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="89"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="91"/>
     </row>
     <row r="36" spans="1:5" ht="19" thickBot="1">
       <c r="A36" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="38"/>
     </row>
     <row r="37" spans="1:5" ht="18" thickBot="1">
       <c r="A37" s="28" t="s">
@@ -20705,18 +20669,18 @@
       <c r="A38" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="30"/>
     </row>
     <row r="39" spans="1:5" ht="18">
       <c r="A39" s="22" t="s">
         <v>711</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" ht="18">
@@ -20750,45 +20714,45 @@
       <c r="A43" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="B43" s="87"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="89"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="91"/>
     </row>
     <row r="44" spans="1:5" ht="19" thickBot="1">
       <c r="A44" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="38"/>
     </row>
     <row r="45" spans="1:5" ht="18" thickBot="1">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="81" t="s">
         <v>712</v>
       </c>
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="84"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="83"/>
     </row>
     <row r="46" spans="1:5" ht="14" customHeight="1">
       <c r="A46" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="30"/>
     </row>
     <row r="47" spans="1:5" ht="18">
       <c r="A47" s="22" t="s">
         <v>711</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="20"/>
     </row>
     <row r="48" spans="1:5" ht="18">
@@ -20822,37 +20786,37 @@
       <c r="A51" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="89"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="91"/>
     </row>
     <row r="52" spans="1:5" ht="19" thickBot="1">
       <c r="A52" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="38"/>
     </row>
     <row r="53" spans="1:5" ht="18" thickBot="1">
-      <c r="A53" s="82" t="s">
+      <c r="A53" s="81" t="s">
         <v>708</v>
       </c>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="84"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="83"/>
     </row>
     <row r="54" spans="1:5" ht="18">
       <c r="A54" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="30"/>
     </row>
     <row r="55" spans="1:5" ht="18">
       <c r="A55" s="22" t="s">
@@ -20876,279 +20840,287 @@
       <c r="A57" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="B57" s="87"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="89"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="91"/>
     </row>
     <row r="58" spans="1:5" ht="19" thickBot="1">
       <c r="A58" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="38"/>
     </row>
     <row r="59" spans="1:5" ht="18" thickBot="1">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="81" t="s">
         <v>706</v>
       </c>
-      <c r="B59" s="83"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="84"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="83"/>
     </row>
     <row r="60" spans="1:5" ht="18">
       <c r="A60" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="B60" s="92"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="94"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="97"/>
     </row>
     <row r="61" spans="1:5" ht="18">
       <c r="A61" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="35"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="34"/>
     </row>
     <row r="62" spans="1:5" ht="18">
       <c r="A62" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="B62" s="87"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="89"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="91"/>
     </row>
     <row r="63" spans="1:5" ht="19" thickBot="1">
       <c r="A63" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="38"/>
     </row>
     <row r="64" spans="1:5" ht="18" thickBot="1">
-      <c r="A64" s="82" t="s">
+      <c r="A64" s="81" t="s">
         <v>705</v>
       </c>
-      <c r="B64" s="83"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="84"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="83"/>
     </row>
     <row r="65" spans="1:5" ht="18">
       <c r="A65" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="B65" s="87"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="89"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="91"/>
     </row>
     <row r="66" spans="1:5" ht="18">
       <c r="A66" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="B66" s="87"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="89"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="91"/>
     </row>
     <row r="67" spans="1:5" ht="19" thickBot="1">
       <c r="A67" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="38"/>
     </row>
     <row r="68" spans="1:5" ht="18" thickBot="1">
-      <c r="A68" s="82" t="s">
+      <c r="A68" s="81" t="s">
         <v>704</v>
       </c>
-      <c r="B68" s="83"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="84"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="83"/>
     </row>
     <row r="69" spans="1:5" ht="18">
       <c r="A69" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="31"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="30"/>
     </row>
     <row r="70" spans="1:5" ht="18">
       <c r="A70" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
     </row>
     <row r="71" spans="1:5" ht="18">
       <c r="A71" s="22" t="s">
         <v>701</v>
       </c>
-      <c r="B71" s="87"/>
-      <c r="C71" s="88"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="89"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="91"/>
     </row>
     <row r="72" spans="1:5" ht="19" thickBot="1">
       <c r="A72" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="39"/>
-    </row>
-    <row r="73" spans="1:5" ht="19" thickBot="1">
-      <c r="A73" s="30" t="s">
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="38"/>
+    </row>
+    <row r="73" spans="1:5" ht="18" thickBot="1">
+      <c r="A73" s="81" t="s">
         <v>699</v>
       </c>
-      <c r="B73" s="87"/>
-      <c r="C73" s="88"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="89"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="83"/>
     </row>
     <row r="74" spans="1:5" ht="18">
       <c r="A74" s="22" t="s">
         <v>698</v>
       </c>
-      <c r="B74" s="87"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="95"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="90"/>
+      <c r="E74" s="92"/>
     </row>
     <row r="75" spans="1:5" ht="18">
       <c r="A75" s="22" t="s">
         <v>697</v>
       </c>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
     </row>
     <row r="76" spans="1:5" ht="18">
       <c r="A76" s="22" t="s">
         <v>696</v>
       </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
     </row>
     <row r="77" spans="1:5" ht="18">
       <c r="A77" s="22" t="s">
         <v>695</v>
       </c>
-      <c r="B77" s="87"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="89"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="90"/>
+      <c r="D77" s="90"/>
+      <c r="E77" s="91"/>
     </row>
     <row r="78" spans="1:5" ht="18">
       <c r="A78" s="22" t="s">
         <v>694</v>
       </c>
-      <c r="B78" s="87"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="89"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="90"/>
+      <c r="D78" s="90"/>
+      <c r="E78" s="91"/>
     </row>
     <row r="79" spans="1:5" ht="34">
       <c r="A79" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="B79" s="87"/>
-      <c r="C79" s="88"/>
-      <c r="D79" s="88"/>
-      <c r="E79" s="89"/>
+      <c r="B79" s="89"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="91"/>
     </row>
     <row r="80" spans="1:5" ht="19" thickBot="1">
       <c r="A80" s="25" t="s">
         <v>692</v>
       </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="35"/>
-    </row>
-    <row r="81" spans="1:5" ht="19" thickBot="1">
-      <c r="A81" s="30" t="s">
+      <c r="B80" s="36"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="34"/>
+    </row>
+    <row r="81" spans="1:5" ht="18" thickBot="1">
+      <c r="A81" s="81" t="s">
         <v>691</v>
       </c>
-      <c r="B81" s="87"/>
-      <c r="C81" s="88"/>
-      <c r="D81" s="88"/>
-      <c r="E81" s="89"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="82"/>
+      <c r="E81" s="83"/>
     </row>
     <row r="82" spans="1:5" ht="18">
       <c r="A82" s="22" t="s">
         <v>690</v>
       </c>
-      <c r="B82" s="87"/>
-      <c r="C82" s="88"/>
-      <c r="D82" s="88"/>
-      <c r="E82" s="89"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="90"/>
+      <c r="D82" s="90"/>
+      <c r="E82" s="91"/>
     </row>
     <row r="83" spans="1:5" ht="18">
       <c r="A83" s="22" t="s">
         <v>689</v>
       </c>
-      <c r="B83" s="87"/>
-      <c r="C83" s="88"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="89"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="90"/>
+      <c r="E83" s="91"/>
     </row>
     <row r="84" spans="1:5" ht="18">
       <c r="A84" s="22" t="s">
         <v>688</v>
       </c>
-      <c r="B84" s="87"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="89"/>
+      <c r="B84" s="89"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="91"/>
     </row>
     <row r="85" spans="1:5" ht="18">
       <c r="A85" s="22" t="s">
         <v>687</v>
       </c>
-      <c r="B85" s="87"/>
-      <c r="C85" s="88"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="89"/>
+      <c r="B85" s="89"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="90"/>
+      <c r="E85" s="91"/>
     </row>
     <row r="86" spans="1:5" ht="18">
       <c r="A86" s="22" t="s">
         <v>686</v>
       </c>
-      <c r="B86" s="87"/>
-      <c r="C86" s="88"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="89"/>
+      <c r="B86" s="89"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="90"/>
+      <c r="E86" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="B85:E85"/>
     <mergeCell ref="B86:E86"/>
@@ -21160,22 +21132,14 @@
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="B77:E77"/>
     <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B73:E73"/>
     <mergeCell ref="B74:E74"/>
     <mergeCell ref="A64:E64"/>
     <mergeCell ref="B65:E65"/>
     <mergeCell ref="B66:E66"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -21186,7 +21150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D5FE86-85EE-C047-A84C-E16759F68B11}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -21201,628 +21165,622 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="17" customFormat="1" ht="24" thickBot="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>755</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="104"/>
     </row>
     <row r="2" spans="1:5" ht="18" thickBot="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
         <v>754</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
     </row>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="60" t="s">
         <v>753</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
     </row>
     <row r="4" spans="1:5" ht="18">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="60" t="s">
         <v>752</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
     </row>
     <row r="5" spans="1:5" ht="18">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="60" t="s">
         <v>751</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
     </row>
     <row r="6" spans="1:5" ht="18">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="60" t="s">
         <v>750</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="99"/>
     </row>
     <row r="7" spans="1:5" ht="18">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="66" t="s">
         <v>749</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:5" ht="19" thickBot="1">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>748</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
     </row>
     <row r="9" spans="1:5" ht="17">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="60" t="s">
         <v>747</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="69" t="s">
         <v>644</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="69" t="s">
         <v>645</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="69" t="s">
         <v>646</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="69" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" thickBot="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
     </row>
     <row r="11" spans="1:5" ht="18" thickBot="1">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="81" t="s">
         <v>746</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="84"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
     </row>
     <row r="12" spans="1:5" ht="18">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="60" t="s">
         <v>745</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="68"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="67"/>
     </row>
     <row r="13" spans="1:5" ht="18">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="60" t="s">
         <v>744</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="60" t="s">
         <v>650</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="1:5" ht="18">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="60" t="s">
         <v>743</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="18">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="66" t="s">
         <v>723</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
     </row>
     <row r="17" spans="1:5" ht="35" thickBot="1">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="65" t="s">
         <v>722</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
     </row>
     <row r="18" spans="1:5" ht="18">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="60" t="s">
         <v>721</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
     </row>
     <row r="19" spans="1:5" ht="18">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="60" t="s">
         <v>720</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
     </row>
     <row r="20" spans="1:5" ht="18">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>719</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
     </row>
     <row r="21" spans="1:5" ht="18">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="60" t="s">
         <v>718</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="62"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="61"/>
     </row>
     <row r="22" spans="1:5" ht="18">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="60" t="s">
         <v>717</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="62"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="61"/>
     </row>
     <row r="23" spans="1:5" ht="18">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>716</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
     </row>
     <row r="24" spans="1:5" ht="19" thickBot="1">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="65" t="s">
         <v>701</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="62"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="61"/>
     </row>
     <row r="25" spans="1:5" ht="18">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="60" t="s">
         <v>700</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="62"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="61"/>
     </row>
     <row r="26" spans="1:5" ht="34">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="60" t="s">
         <v>742</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
     </row>
     <row r="27" spans="1:5" ht="19" thickBot="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="81" t="s">
         <v>741</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="83"/>
     </row>
     <row r="29" spans="1:5" ht="18">
       <c r="A29" s="24" t="s">
         <v>703</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
     </row>
     <row r="30" spans="1:5" ht="18">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="32" t="s">
         <v>711</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="54"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="53"/>
     </row>
     <row r="31" spans="1:5" ht="18">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="32" t="s">
         <v>702</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
     </row>
     <row r="32" spans="1:5" ht="16" customHeight="1">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="32" t="s">
         <v>710</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
     </row>
     <row r="33" spans="1:5" ht="18">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="32" t="s">
         <v>794</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
     </row>
     <row r="34" spans="1:5" ht="18">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="32" t="s">
         <v>701</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
     </row>
     <row r="35" spans="1:5" ht="18">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="32" t="s">
         <v>700</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
     </row>
     <row r="36" spans="1:5" ht="19" thickBot="1">
-      <c r="A36" s="49"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="58"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="57"/>
     </row>
     <row r="37" spans="1:5" ht="18" thickBot="1">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="81" t="s">
         <v>740</v>
       </c>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="83"/>
     </row>
     <row r="38" spans="1:5" ht="18">
       <c r="A38" s="24" t="s">
         <v>703</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
     </row>
     <row r="39" spans="1:5" ht="19" customHeight="1">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="32" t="s">
         <v>711</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
     </row>
     <row r="40" spans="1:5" ht="18">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="32" t="s">
         <v>702</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
     </row>
     <row r="41" spans="1:5" ht="17" customHeight="1">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="32" t="s">
         <v>710</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
     </row>
     <row r="42" spans="1:5" ht="18">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="32" t="s">
         <v>709</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
     </row>
     <row r="43" spans="1:5" ht="18">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="32" t="s">
         <v>701</v>
       </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
     </row>
     <row r="44" spans="1:5" ht="18">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="32" t="s">
         <v>700</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
     </row>
     <row r="45" spans="1:5" ht="18">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="56" t="s">
         <v>739</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:5" ht="19" thickBot="1">
-      <c r="A46" s="57"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
     </row>
     <row r="47" spans="1:5" ht="18" thickBot="1">
-      <c r="A47" s="82" t="s">
+      <c r="A47" s="81" t="s">
         <v>738</v>
       </c>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="84"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="83"/>
     </row>
     <row r="48" spans="1:5" ht="18">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="32" t="s">
         <v>737</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
     </row>
     <row r="49" spans="1:5" ht="18">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="32" t="s">
         <v>736</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
     </row>
     <row r="50" spans="1:5" ht="18">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
     </row>
     <row r="51" spans="1:5" ht="18">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="32" t="s">
         <v>734</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
     </row>
     <row r="52" spans="1:5" ht="19" thickBot="1">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="55" t="s">
         <v>733</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
     </row>
     <row r="53" spans="1:5" ht="19" thickBot="1">
-      <c r="A53" s="48"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
     </row>
     <row r="54" spans="1:5" ht="18" thickBot="1">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="81" t="s">
         <v>732</v>
       </c>
-      <c r="B54" s="83"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="84"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="83"/>
     </row>
     <row r="55" spans="1:5" ht="18">
       <c r="A55" s="24" t="s">
         <v>703</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="52"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="51"/>
     </row>
     <row r="56" spans="1:5" ht="18">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="32" t="s">
         <v>702</v>
       </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="52"/>
     </row>
     <row r="57" spans="1:5" ht="18">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="32" t="s">
         <v>709</v>
       </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="52"/>
     </row>
     <row r="58" spans="1:5" ht="18">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="32" t="s">
         <v>701</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="52"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="51"/>
     </row>
     <row r="59" spans="1:5" ht="18">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="32" t="s">
         <v>700</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="52"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="51"/>
     </row>
     <row r="60" spans="1:5" ht="19" thickBot="1">
-      <c r="A60" s="49"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="50"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="49"/>
     </row>
     <row r="61" spans="1:5" ht="18" thickBot="1">
-      <c r="A61" s="82" t="s">
+      <c r="A61" s="81" t="s">
         <v>731</v>
       </c>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="84"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="83"/>
     </row>
     <row r="62" spans="1:5" ht="18">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="32" t="s">
         <v>730</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
     </row>
     <row r="63" spans="1:5" ht="18">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="32" t="s">
         <v>697</v>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
     </row>
     <row r="64" spans="1:5" ht="18">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="32" t="s">
         <v>696</v>
       </c>
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
     </row>
     <row r="65" spans="1:5" ht="18">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="32" t="s">
         <v>695</v>
       </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
     </row>
     <row r="66" spans="1:5" ht="18">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="32" t="s">
         <v>694</v>
       </c>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
     </row>
     <row r="67" spans="1:5" ht="51">
-      <c r="A67" s="33" t="s">
+      <c r="A67" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
     </row>
     <row r="68" spans="1:5" ht="18">
-      <c r="A68" s="49" t="s">
+      <c r="A68" s="48" t="s">
         <v>692</v>
       </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
     </row>
     <row r="69" spans="1:5" ht="18">
-      <c r="A69" s="48"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A47:E47"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
@@ -21831,6 +21789,12 @@
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A47:E47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
